--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27B615D-CE40-4974-9D67-D55F862FBA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8015ECD2-D3BE-4000-ABEF-EA07AE01F493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -329,6 +329,180 @@
   </si>
   <si>
     <t>「5.キャンセル」をクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>添付ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解決ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キャンセルボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タイトル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問内容</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questions_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>file_select</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>solution_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>update_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cancel_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>navigationmenu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:checkbox</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nav_ul</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p_footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_questions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_file</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>done_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_contents</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2327,6 +2501,480 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063D433E-B376-438C-9E74-ED6FD8E80013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895000" y="2841784"/>
+          <a:ext cx="250031" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89B19F7-1FAE-4F2D-85BC-1EFBA47549F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905001" y="3266599"/>
+          <a:ext cx="250031" cy="303371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>117634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EF3917-54D7-44BF-A1B7-62C9997752F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083844" y="1538288"/>
+          <a:ext cx="250031" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216218</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>216218</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3623C3B-8C0F-488A-B41D-58830CD83260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="716281" y="1935004"/>
+          <a:ext cx="250031" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45761532-0CE0-4428-8E1C-43454DDEA1E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="500063" y="2276476"/>
+          <a:ext cx="382906" cy="291941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168594</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCA70B4-6D22-4738-886B-4731069AF8A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="535782" y="6011228"/>
+          <a:ext cx="382906" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2653,13 +3301,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA86" sqref="AA86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.6640625" style="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="3.6640625" style="1"/>
+    <col min="14" max="14" width="6" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -5972,19 +6624,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -5992,11 +6654,15 @@
       <c r="T79" s="19"/>
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
-      <c r="W79" s="16"/>
+      <c r="W79" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
-      <c r="AA79" s="16"/>
+      <c r="AA79" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="16"/>
@@ -6014,19 +6680,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -6034,11 +6710,15 @@
       <c r="T80" s="19"/>
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
-      <c r="W80" s="16"/>
+      <c r="W80" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
-      <c r="AA80" s="16"/>
+      <c r="AA80" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="16"/>
@@ -6056,19 +6736,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -6076,11 +6766,15 @@
       <c r="T81" s="19"/>
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
-      <c r="W81" s="16"/>
+      <c r="W81" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
-      <c r="AA81" s="16"/>
+      <c r="AA81" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="16"/>
@@ -6098,16 +6792,24 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16"/>
@@ -6140,16 +6842,24 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16"/>
@@ -6182,19 +6892,29 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>6</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16"/>
+      <c r="O84" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -6202,11 +6922,15 @@
       <c r="T84" s="19"/>
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
-      <c r="W84" s="16"/>
+      <c r="W84" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
-      <c r="AA84" s="16"/>
+      <c r="AA84" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
       <c r="AD84" s="16"/>
@@ -6224,19 +6948,29 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="15">
+        <v>7</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16"/>
+      <c r="O85" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
@@ -6244,11 +6978,15 @@
       <c r="T85" s="19"/>
       <c r="U85" s="16"/>
       <c r="V85" s="19"/>
-      <c r="W85" s="16"/>
+      <c r="W85" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
-      <c r="AA85" s="16"/>
+      <c r="AA85" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
       <c r="AD85" s="16"/>
@@ -6266,16 +7004,24 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="15">
+        <v>8</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16"/>
@@ -6308,16 +7054,24 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="15">
+        <v>9</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16"/>
@@ -6350,16 +7104,24 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="15">
+        <v>10</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
       <c r="O88" s="16"/>
@@ -6392,16 +7154,24 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
+      <c r="H89" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="16"/>
+      <c r="L89" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
       <c r="O89" s="16"/>

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8015ECD2-D3BE-4000-ABEF-EA07AE01F493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C32579-CE9B-40A4-B310-C4FEA04A7346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,13 +304,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「3.解決ボタン」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>チェックボックスで、解決済みの場合チェックする。</t>
     <rPh sb="10" eb="13">
       <t>カイケツズ</t>
@@ -503,6 +496,13 @@
   </si>
   <si>
     <t>q_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「3.解決チェックボックス」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>カイケツ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2362,13 +2362,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>158591</xdr:colOff>
+      <xdr:colOff>158590</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>134779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>134778</xdr:colOff>
+      <xdr:colOff>211666</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>79534</xdr:rowOff>
     </xdr:to>
@@ -2385,8 +2385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2158841" y="5278279"/>
-          <a:ext cx="976312" cy="325755"/>
+          <a:off x="2190590" y="5392579"/>
+          <a:ext cx="1390809" cy="334222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2415,7 +2415,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>解決ボタン</a:t>
+            <a:t>解決チェックボックス</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3301,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA86" sqref="AA86"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5542,7 +5542,7 @@
       <c r="B54" s="6"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -5587,7 +5587,7 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -5672,7 +5672,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -5802,7 +5802,7 @@
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -6628,24 +6628,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -6655,13 +6655,13 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -6684,24 +6684,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -6711,13 +6711,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -6740,24 +6740,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -6767,13 +6767,13 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -6796,19 +6796,19 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
@@ -6846,19 +6846,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -6896,24 +6896,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -6923,13 +6923,13 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -6952,24 +6952,24 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
@@ -6979,13 +6979,13 @@
       <c r="U85" s="16"/>
       <c r="V85" s="19"/>
       <c r="W85" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
@@ -7008,19 +7008,19 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -7058,19 +7058,19 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
@@ -7108,19 +7108,19 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -7158,19 +7158,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C32579-CE9B-40A4-B310-C4FEA04A7346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4218ED24-5727-4E72-852B-C3F3DC664FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -269,41 +269,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「更新完了メッセージ」を表示した後、「マイページ」に遷移する。</t>
-    <rPh sb="1" eb="5">
-      <t>コウシンカンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「編集中の項目を破棄します。」というメッセージを出し、「マイページ」に遷移する。</t>
-    <rPh sb="1" eb="4">
-      <t>ヘンシュウチュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>チェックボックスで、解決済みの場合チェックする。</t>
     <rPh sb="10" eb="13">
       <t>カイケツズ</t>
@@ -502,6 +467,50 @@
     <t>「3.解決チェックボックス」をクリック</t>
     <rPh sb="3" eb="5">
       <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「更新確認メッセージ」を表示した後、「OK」が選択された場合「マイページ」に遷移する。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「編集中の項目を破棄します。」というメッセージを出し、「OK」が選択された場合「マイページ」に遷移する。</t>
+    <rPh sb="1" eb="4">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3301,17 +3310,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.625" style="1"/>
+    <col min="11" max="11" width="8.375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="3.625" style="1"/>
     <col min="14" max="14" width="6" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="3.6640625" style="1"/>
+    <col min="15" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -5542,7 +5551,7 @@
       <c r="B54" s="6"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -5587,7 +5596,7 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -5672,7 +5681,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -5717,7 +5726,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="9" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -5802,7 +5811,7 @@
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -5847,7 +5856,7 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="9" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -6628,24 +6637,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -6655,13 +6664,13 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -6684,24 +6693,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -6711,13 +6720,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -6740,24 +6749,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -6767,13 +6776,13 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -6796,19 +6805,19 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
@@ -6846,19 +6855,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -6896,24 +6905,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -6923,13 +6932,13 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -6952,24 +6961,24 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
@@ -6979,13 +6988,13 @@
       <c r="U85" s="16"/>
       <c r="V85" s="19"/>
       <c r="W85" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
@@ -7008,19 +7017,19 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -7058,19 +7067,19 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
@@ -7108,19 +7117,19 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -7158,19 +7167,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4218ED24-5727-4E72-852B-C3F3DC664FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C4873-4D8D-4CF0-A49A-679BBC36EEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -514,6 +514,33 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>質問編集ページ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>御代田里奈</t>
+    <rPh sb="0" eb="5">
+      <t>ミヨタリナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問・相談システム</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -887,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1014,6 +1041,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3310,17 +3340,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.625" style="1"/>
-    <col min="11" max="11" width="8.375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="3.625" style="1"/>
+    <col min="1" max="10" width="3.6640625" style="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="3.6640625" style="1"/>
     <col min="14" max="14" width="6" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="3.625" style="1"/>
+    <col min="15" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3341,7 +3371,9 @@
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="N1" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
@@ -3354,7 +3386,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
+      <c r="Y1" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
@@ -3389,7 +3423,9 @@
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="N2" s="41" t="s">
+        <v>76</v>
+      </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
@@ -3402,7 +3438,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="Y2" s="46">
+        <v>44356</v>
+      </c>
       <c r="Z2" s="41"/>
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C4873-4D8D-4CF0-A49A-679BBC36EEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA87821-C739-4E99-A002-E7CA1B55C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -225,30 +225,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「1.質問タグ」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>プルダウンで複数の質問項目から質問タグを選択。</t>
-    <rPh sb="6" eb="8">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>シツモンコウモク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「2.添付ファイル」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>テンプ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ファイル選択ダイアログを表示する。</t>
     <rPh sb="4" eb="6">
       <t>センタク</t>
@@ -279,24 +255,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「4.更新」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「5.キャンセル」をクリック</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>添付ファイル</t>
     <rPh sb="0" eb="2">
       <t>テンプ</t>
@@ -352,10 +310,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>questions_tag</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>file_select</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -444,10 +398,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>q_tag</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>q_file</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -461,13 +411,6 @@
   </si>
   <si>
     <t>q_contents</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「3.解決チェックボックス」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>カイケツ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -539,6 +482,112 @@
     <rPh sb="3" eb="5">
       <t>ソウダン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プルダウンで,あらかじめ用意された質問タグから選択する。</t>
+  </si>
+  <si>
+    <t>「1～5.質問タグ」をクリック</t>
+    <rPh sb="5" eb="7">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「6.添付ファイル」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「7.解決チェックボックス」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「8.更新」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「9.キャンセル」をクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questions_tag1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questions_tag2</t>
+  </si>
+  <si>
+    <t>questions_tag3</t>
+  </si>
+  <si>
+    <t>questions_tag4</t>
+  </si>
+  <si>
+    <t>questions_tag5</t>
+  </si>
+  <si>
+    <t>質問タグ1</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ2</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ3</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ4</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ5</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag02</t>
+  </si>
+  <si>
+    <t>q_tag03</t>
+  </si>
+  <si>
+    <t>q_tag04</t>
+  </si>
+  <si>
+    <t>q_tag05</t>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -914,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1031,6 +1080,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,9 +1095,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1598,7 +1648,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2307,7 +2357,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2386,7 +2436,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2528,7 +2578,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2542,16 +2592,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>144781</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>174784</xdr:rowOff>
+      <xdr:rowOff>170974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>144781</xdr:colOff>
+      <xdr:colOff>142876</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2566,8 +2616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1895000" y="2841784"/>
-          <a:ext cx="250031" cy="293846"/>
+          <a:off x="1729154" y="2837974"/>
+          <a:ext cx="406645" cy="301466"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2607,7 +2657,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2622,15 +2672,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>154782</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28099</xdr:rowOff>
+      <xdr:rowOff>26194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>154782</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2645,8 +2695,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905001" y="3266599"/>
-          <a:ext cx="250031" cy="303371"/>
+          <a:off x="1743808" y="3264694"/>
+          <a:ext cx="403897" cy="303371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2686,7 +2736,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>11</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2700,14 +2750,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>18098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
+      <xdr:colOff>85249</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>117634</xdr:rowOff>
     </xdr:to>
@@ -2724,8 +2774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4083844" y="1538288"/>
-          <a:ext cx="250031" cy="293846"/>
+          <a:off x="4425462" y="1542098"/>
+          <a:ext cx="378325" cy="290036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2765,7 +2815,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>12</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2780,15 +2830,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>216218</xdr:colOff>
+      <xdr:colOff>87924</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>30004</xdr:rowOff>
+      <xdr:rowOff>28099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>216218</xdr:colOff>
+      <xdr:colOff>212409</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2803,8 +2853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716281" y="1935004"/>
-          <a:ext cx="250031" cy="293846"/>
+          <a:off x="586155" y="1933099"/>
+          <a:ext cx="373600" cy="291941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,7 +2894,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>13</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2923,7 +2973,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>14</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3002,7 +3052,323 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121187</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121187</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F3E930-345F-4F2A-89E9-09F625F959F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3183841" y="4238442"/>
+          <a:ext cx="249115" cy="267176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>20515</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>20515</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4FF057-51B0-42A9-8DAE-AB5650C88A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4240823" y="4247674"/>
+          <a:ext cx="249115" cy="267176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>89974</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89974</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0B2D5B-53D2-4EEB-BA80-0450AF46920E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057628" y="4236831"/>
+          <a:ext cx="249115" cy="259556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>42496</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>42495</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2354AE9-A707-4C53-9B95-9442BDC099D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6006611" y="4216755"/>
+          <a:ext cx="249115" cy="257651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3340,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U90" sqref="U90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3372,7 +3738,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
@@ -3387,7 +3753,7 @@
       </c>
       <c r="X1" s="31"/>
       <c r="Y1" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
@@ -3395,10 +3761,10 @@
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="31"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="45"/>
+      <c r="AG1" s="46"/>
       <c r="AH1" s="38"/>
       <c r="AI1" s="38"/>
       <c r="AJ1" s="38"/>
@@ -3424,7 +3790,7 @@
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="41" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
@@ -3438,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="46">
+      <c r="Y2" s="42">
         <v>44356</v>
       </c>
       <c r="Z2" s="41"/>
@@ -3447,17 +3813,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
@@ -5285,7 +5651,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -5330,7 +5696,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="9" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -5415,7 +5781,7 @@
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -5460,7 +5826,7 @@
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -5504,7 +5870,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -5634,7 +6000,7 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -5719,7 +6085,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -5764,7 +6130,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -5849,7 +6215,7 @@
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -5894,7 +6260,7 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -6675,40 +7041,42 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
       <c r="S79" s="16"/>
       <c r="T79" s="19"/>
-      <c r="U79" s="16"/>
+      <c r="U79" s="16">
+        <v>30</v>
+      </c>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -6731,43 +7099,45 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
+        <v>75</v>
+      </c>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I80" s="18"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="19"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="15"/>
       <c r="L80" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M80" s="17"/>
-      <c r="N80" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="M80" s="18"/>
+      <c r="N80" s="15"/>
       <c r="O80" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="16">
+        <v>30</v>
+      </c>
+      <c r="V80" s="15"/>
       <c r="W80" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
-      <c r="Z80" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="15"/>
       <c r="AA80" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB80" s="17"/>
-      <c r="AC80" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="AB80" s="18"/>
+      <c r="AC80" s="15"/>
       <c r="AD80" s="16"/>
       <c r="AE80" s="17"/>
       <c r="AF80" s="17"/>
@@ -6787,43 +7157,45 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I81" s="18"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="19"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="M81" s="17"/>
-      <c r="N81" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="M81" s="18"/>
+      <c r="N81" s="15"/>
       <c r="O81" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="16">
+        <v>30</v>
+      </c>
+      <c r="V81" s="15"/>
       <c r="W81" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="X81" s="17"/>
-      <c r="Y81" s="17"/>
-      <c r="Z81" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="15"/>
       <c r="AA81" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB81" s="17"/>
-      <c r="AC81" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="AB81" s="18"/>
+      <c r="AC81" s="15"/>
       <c r="AD81" s="16"/>
       <c r="AE81" s="17"/>
       <c r="AF81" s="17"/>
@@ -6843,37 +7215,45 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I82" s="18"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="19"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="M82" s="17"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="19"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="17"/>
-      <c r="Y82" s="17"/>
-      <c r="Z82" s="19"/>
-      <c r="AA82" s="16"/>
-      <c r="AB82" s="17"/>
-      <c r="AC82" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="M82" s="18"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="16">
+        <v>30</v>
+      </c>
+      <c r="V82" s="15"/>
+      <c r="W82" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="X82" s="18"/>
+      <c r="Y82" s="18"/>
+      <c r="Z82" s="15"/>
+      <c r="AA82" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB82" s="18"/>
+      <c r="AC82" s="15"/>
       <c r="AD82" s="16"/>
       <c r="AE82" s="17"/>
       <c r="AF82" s="17"/>
@@ -6893,37 +7273,34 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="47"/>
+      <c r="H83" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K83" s="47"/>
+      <c r="L83" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N83" s="47"/>
+      <c r="O83" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M83" s="17"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="19"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="19"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="17"/>
-      <c r="Y83" s="17"/>
-      <c r="Z83" s="19"/>
-      <c r="AA83" s="16"/>
-      <c r="AB83" s="17"/>
-      <c r="AC83" s="19"/>
+      <c r="R83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="16">
+        <v>30</v>
+      </c>
+      <c r="V83" s="47"/>
+      <c r="W83" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z83" s="47"/>
+      <c r="AA83" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC83" s="47"/>
       <c r="AD83" s="16"/>
       <c r="AE83" s="17"/>
       <c r="AF83" s="17"/>
@@ -6943,24 +7320,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -6970,13 +7347,13 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -6999,40 +7376,44 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
-      <c r="S85" s="16"/>
+      <c r="S85" s="16">
+        <v>0</v>
+      </c>
       <c r="T85" s="19"/>
-      <c r="U85" s="16"/>
+      <c r="U85" s="16">
+        <v>1</v>
+      </c>
       <c r="V85" s="19"/>
       <c r="W85" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
@@ -7055,19 +7436,19 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -7105,19 +7486,19 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
@@ -7155,35 +7536,45 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16"/>
+      <c r="O88" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
-      <c r="S88" s="16"/>
+      <c r="S88" s="16">
+        <v>1</v>
+      </c>
       <c r="T88" s="19"/>
-      <c r="U88" s="16"/>
+      <c r="U88" s="16">
+        <v>80</v>
+      </c>
       <c r="V88" s="19"/>
-      <c r="W88" s="16"/>
+      <c r="W88" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
-      <c r="AA88" s="16"/>
+      <c r="AA88" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
       <c r="AD88" s="16"/>
@@ -7205,35 +7596,45 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="16"/>
+      <c r="O89" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="19"/>
-      <c r="S89" s="16"/>
+      <c r="S89" s="16">
+        <v>1</v>
+      </c>
       <c r="T89" s="19"/>
-      <c r="U89" s="16"/>
+      <c r="U89" s="16">
+        <v>500</v>
+      </c>
       <c r="V89" s="19"/>
-      <c r="W89" s="16"/>
+      <c r="W89" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
-      <c r="AA89" s="16"/>
+      <c r="AA89" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
       <c r="AD89" s="16"/>
@@ -7251,16 +7652,24 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="15">
+        <v>12</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
       <c r="O90" s="16"/>
@@ -7293,16 +7702,24 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
+      <c r="C91" s="15">
+        <v>13</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
+      <c r="H91" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
-      <c r="L91" s="16"/>
+      <c r="L91" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
       <c r="O91" s="16"/>
@@ -7335,16 +7752,24 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
+      <c r="C92" s="15">
+        <v>14</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
+      <c r="H92" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
-      <c r="L92" s="16"/>
+      <c r="L92" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
       <c r="O92" s="16"/>
@@ -7377,16 +7802,24 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
+      <c r="C93" s="15">
+        <v>15</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="16"/>
+      <c r="H93" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="I93" s="18"/>
       <c r="J93" s="17"/>
       <c r="K93" s="19"/>
-      <c r="L93" s="16"/>
+      <c r="L93" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="M93" s="17"/>
       <c r="N93" s="19"/>
       <c r="O93" s="16"/>

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA87821-C739-4E99-A002-E7CA1B55C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1200EB4-2EEE-468F-84EF-2E4AE7788BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,7 +1096,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3706,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U90" sqref="U90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U85" sqref="U85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3720,154 +3720,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43">
         <v>44356</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7275,32 +7275,32 @@
       <c r="D83" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G83" s="47"/>
+      <c r="G83" s="21"/>
       <c r="H83" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K83" s="47"/>
+      <c r="K83" s="21"/>
       <c r="L83" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N83" s="47"/>
+      <c r="N83" s="21"/>
       <c r="O83" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="R83" s="47"/>
-      <c r="T83" s="47"/>
+      <c r="R83" s="21"/>
+      <c r="T83" s="21"/>
       <c r="U83" s="16">
         <v>30</v>
       </c>
-      <c r="V83" s="47"/>
+      <c r="V83" s="21"/>
       <c r="W83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z83" s="47"/>
+      <c r="Z83" s="21"/>
       <c r="AA83" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AC83" s="47"/>
+      <c r="AC83" s="21"/>
       <c r="AD83" s="16"/>
       <c r="AE83" s="17"/>
       <c r="AF83" s="17"/>
@@ -7344,7 +7344,9 @@
       <c r="R84" s="19"/>
       <c r="S84" s="16"/>
       <c r="T84" s="19"/>
-      <c r="U84" s="16"/>
+      <c r="U84" s="16">
+        <v>255</v>
+      </c>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
         <v>58</v>

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1200EB4-2EEE-468F-84EF-2E4AE7788BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C4873-4D8D-4CF0-A49A-679BBC36EEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -225,6 +225,30 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>「1.質問タグ」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プルダウンで複数の質問項目から質問タグを選択。</t>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シツモンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2.添付ファイル」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>ファイル選択ダイアログを表示する。</t>
     <rPh sb="4" eb="6">
       <t>センタク</t>
@@ -251,6 +275,24 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「4.更新」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「5.キャンセル」をクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -307,6 +349,10 @@
   </si>
   <si>
     <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questions_tag</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -398,6 +444,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>q_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>q_file</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -411,6 +461,13 @@
   </si>
   <si>
     <t>q_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「3.解決チェックボックス」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>カイケツ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -482,112 +539,6 @@
     <rPh sb="3" eb="5">
       <t>ソウダン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>プルダウンで,あらかじめ用意された質問タグから選択する。</t>
-  </si>
-  <si>
-    <t>「1～5.質問タグ」をクリック</t>
-    <rPh sb="5" eb="7">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「6.添付ファイル」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>テンプ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「7.解決チェックボックス」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「8.更新」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「9.キャンセル」をクリック</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>questions_tag1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>questions_tag2</t>
-  </si>
-  <si>
-    <t>questions_tag3</t>
-  </si>
-  <si>
-    <t>questions_tag4</t>
-  </si>
-  <si>
-    <t>questions_tag5</t>
-  </si>
-  <si>
-    <t>質問タグ1</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ2</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ3</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ4</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ5</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>q_tag01</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>q_tag02</t>
-  </si>
-  <si>
-    <t>q_tag03</t>
-  </si>
-  <si>
-    <t>q_tag04</t>
-  </si>
-  <si>
-    <t>q_tag05</t>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -963,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1017,7 +968,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,9 +1031,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,6 +1041,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1648,7 +1598,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>2</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2357,7 +2307,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2436,7 +2386,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>4</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2578,7 +2528,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2592,16 +2542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>234462</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>170974</xdr:rowOff>
+      <xdr:rowOff>174784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:colOff>144781</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2616,8 +2566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1729154" y="2837974"/>
-          <a:ext cx="406645" cy="301466"/>
+          <a:off x="1895000" y="2841784"/>
+          <a:ext cx="250031" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,7 +2607,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2672,15 +2622,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>154782</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>26194</xdr:rowOff>
+      <xdr:rowOff>28099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>154782</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2695,8 +2645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743808" y="3264694"/>
-          <a:ext cx="403897" cy="303371"/>
+          <a:off x="1905001" y="3266599"/>
+          <a:ext cx="250031" cy="303371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2736,7 +2686,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2750,14 +2700,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205154</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>18098</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>85249</xdr:colOff>
+      <xdr:colOff>83344</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>117634</xdr:rowOff>
     </xdr:to>
@@ -2774,8 +2724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4425462" y="1542098"/>
-          <a:ext cx="378325" cy="290036"/>
+          <a:off x="4083844" y="1538288"/>
+          <a:ext cx="250031" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2815,7 +2765,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2830,15 +2780,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>87924</xdr:colOff>
+      <xdr:colOff>216218</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28099</xdr:rowOff>
+      <xdr:rowOff>30004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>212409</xdr:colOff>
+      <xdr:colOff>216218</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2853,8 +2803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586155" y="1933099"/>
-          <a:ext cx="373600" cy="291941"/>
+          <a:off x="716281" y="1935004"/>
+          <a:ext cx="250031" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2894,7 +2844,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2973,7 +2923,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>14</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3052,323 +3002,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>15</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121187</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>121187</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>124118</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F3E930-345F-4F2A-89E9-09F625F959F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3183841" y="4238442"/>
-          <a:ext cx="249115" cy="267176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>20515</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>56674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>20515</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4FF057-51B0-42A9-8DAE-AB5650C88A94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4240823" y="4247674"/>
-          <a:ext cx="249115" cy="267176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>89974</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>45831</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>89974</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114887</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0B2D5B-53D2-4EEB-BA80-0450AF46920E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5057628" y="4236831"/>
-          <a:ext cx="249115" cy="259556"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>42496</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>42495</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>92906</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2354AE9-A707-4C53-9B95-9442BDC099D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6006611" y="4216755"/>
-          <a:ext cx="249115" cy="257651"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5</a:t>
+            <a:t>11</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3706,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U85" sqref="U85"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3720,154 +3354,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="47" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="46">
         <v>44356</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="44" t="s">
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5651,7 +5285,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -5696,7 +5330,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="9" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -5781,7 +5415,7 @@
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -5826,7 +5460,7 @@
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -5870,7 +5504,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -6000,7 +5634,7 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -6085,7 +5719,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -6130,7 +5764,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -6215,7 +5849,7 @@
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -6260,7 +5894,7 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -7041,42 +6675,40 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
       <c r="S79" s="16"/>
       <c r="T79" s="19"/>
-      <c r="U79" s="16">
-        <v>30</v>
-      </c>
+      <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -7099,45 +6731,43 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="15"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M80" s="18"/>
-      <c r="N80" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="M80" s="17"/>
+      <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="15"/>
-      <c r="U80" s="16">
-        <v>30</v>
-      </c>
-      <c r="V80" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="AB80" s="17"/>
+      <c r="AC80" s="19"/>
       <c r="AD80" s="16"/>
       <c r="AE80" s="17"/>
       <c r="AF80" s="17"/>
@@ -7157,45 +6787,43 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="15"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M81" s="18"/>
-      <c r="N81" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="M81" s="17"/>
+      <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="16">
-        <v>30</v>
-      </c>
-      <c r="V81" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="AB81" s="17"/>
+      <c r="AC81" s="19"/>
       <c r="AD81" s="16"/>
       <c r="AE81" s="17"/>
       <c r="AF81" s="17"/>
@@ -7215,45 +6843,37 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="15"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M82" s="18"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="16">
-        <v>30</v>
-      </c>
-      <c r="V82" s="15"/>
-      <c r="W82" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="15"/>
-      <c r="AA82" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB82" s="18"/>
-      <c r="AC82" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="M82" s="17"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="16"/>
+      <c r="AB82" s="17"/>
+      <c r="AC82" s="19"/>
       <c r="AD82" s="16"/>
       <c r="AE82" s="17"/>
       <c r="AF82" s="17"/>
@@ -7273,34 +6893,37 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K83" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="I83" s="18"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N83" s="21"/>
-      <c r="O83" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="R83" s="21"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="16">
-        <v>30</v>
-      </c>
-      <c r="V83" s="21"/>
-      <c r="W83" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z83" s="21"/>
-      <c r="AA83" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC83" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="M83" s="17"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="17"/>
+      <c r="AC83" s="19"/>
       <c r="AD83" s="16"/>
       <c r="AE83" s="17"/>
       <c r="AF83" s="17"/>
@@ -7320,42 +6943,40 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
       <c r="S84" s="16"/>
       <c r="T84" s="19"/>
-      <c r="U84" s="16">
-        <v>255</v>
-      </c>
+      <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -7378,44 +6999,40 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
-      <c r="S85" s="16">
-        <v>0</v>
-      </c>
+      <c r="S85" s="16"/>
       <c r="T85" s="19"/>
-      <c r="U85" s="16">
-        <v>1</v>
-      </c>
+      <c r="U85" s="16"/>
       <c r="V85" s="19"/>
       <c r="W85" s="16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="16" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
@@ -7438,19 +7055,19 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -7488,19 +7105,19 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
@@ -7538,45 +7155,35 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="O88" s="16"/>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
-      <c r="S88" s="16">
-        <v>1</v>
-      </c>
+      <c r="S88" s="16"/>
       <c r="T88" s="19"/>
-      <c r="U88" s="16">
-        <v>80</v>
-      </c>
+      <c r="U88" s="16"/>
       <c r="V88" s="19"/>
-      <c r="W88" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="W88" s="16"/>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
-      <c r="AA88" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="AA88" s="16"/>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
       <c r="AD88" s="16"/>
@@ -7598,45 +7205,35 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="O89" s="16"/>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="19"/>
-      <c r="S89" s="16">
-        <v>1</v>
-      </c>
+      <c r="S89" s="16"/>
       <c r="T89" s="19"/>
-      <c r="U89" s="16">
-        <v>500</v>
-      </c>
+      <c r="U89" s="16"/>
       <c r="V89" s="19"/>
-      <c r="W89" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="W89" s="16"/>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
-      <c r="AA89" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA89" s="16"/>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
       <c r="AD89" s="16"/>
@@ -7654,24 +7251,16 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15">
-        <v>12</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="H90" s="16"/>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="L90" s="16"/>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
       <c r="O90" s="16"/>
@@ -7704,24 +7293,16 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="15">
-        <v>13</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="H91" s="16"/>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
-      <c r="L91" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="L91" s="16"/>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
       <c r="O91" s="16"/>
@@ -7754,24 +7335,16 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="15">
-        <v>14</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="H92" s="16"/>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
-      <c r="L92" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="L92" s="16"/>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
       <c r="O92" s="16"/>
@@ -7804,24 +7377,16 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="15">
-        <v>15</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="H93" s="16"/>
       <c r="I93" s="18"/>
       <c r="J93" s="17"/>
       <c r="K93" s="19"/>
-      <c r="L93" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="L93" s="16"/>
       <c r="M93" s="17"/>
       <c r="N93" s="19"/>
       <c r="O93" s="16"/>

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\backup\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C4873-4D8D-4CF0-A49A-679BBC36EEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E9528-5916-42CB-A01C-894358B7053D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -290,13 +290,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>質問タグ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>添付ファイル</t>
     <rPh sb="0" eb="2">
       <t>テンプ</t>
@@ -349,10 +342,6 @@
   </si>
   <si>
     <t>フッター</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>questions_tag</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -540,6 +529,77 @@
       <t>ソウダン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questions_tag1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questions_tag2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questions_tag3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questions_tag4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questions_tag5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ1</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ3</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ4</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ5</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグは最大5つ、最少1つ付けられる</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグが1つも入力されていなかった場合、アラートを表示し、データ送信されずに元の入力画面に戻る。</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1091,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,9 +1104,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,15 +1313,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>154782</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>173832</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>73819</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1276,8 +1336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="976313" y="1952624"/>
-          <a:ext cx="9417844" cy="273845"/>
+          <a:off x="1002507" y="1895474"/>
+          <a:ext cx="10041731" cy="273845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1533,85 +1593,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>134303</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>150500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>134303</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>53821</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8BD450-CD2F-45C2-9AF3-FEA9E08163A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1884522" y="4722500"/>
-          <a:ext cx="250031" cy="284321"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>154781</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -1794,6 +1775,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1983,6 +1969,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2046,6 +2037,90 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>148957</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148957</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8BD450-CD2F-45C2-9AF3-FEA9E08163A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3570630" y="4209615"/>
+          <a:ext cx="278423" cy="284321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2109,6 +2184,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2172,6 +2252,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2242,15 +2327,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114778</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>210029</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>37625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114778</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>210028</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>139066</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2266,8 +2351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1864997" y="5181125"/>
-          <a:ext cx="250031" cy="291941"/>
+          <a:off x="4642817" y="4228625"/>
+          <a:ext cx="278423" cy="291941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2321,16 +2406,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27842</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>20003</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27843</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2345,8 +2430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3748089" y="5441157"/>
-          <a:ext cx="250031" cy="293846"/>
+          <a:off x="5574323" y="4254195"/>
+          <a:ext cx="278424" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2463,16 +2548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>136685</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>69533</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>231935</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>136685</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176689</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>231935</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2487,8 +2572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4637248" y="5403533"/>
-          <a:ext cx="250031" cy="297656"/>
+          <a:off x="6613685" y="4216571"/>
+          <a:ext cx="278423" cy="297656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2543,15 +2628,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>174784</xdr:rowOff>
+      <xdr:colOff>218050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:colOff>218050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2566,8 +2651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1895000" y="2841784"/>
-          <a:ext cx="250031" cy="293846"/>
+          <a:off x="2167012" y="4695495"/>
+          <a:ext cx="278423" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,15 +2707,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>154782</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28099</xdr:rowOff>
+      <xdr:colOff>228052</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>154782</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>228052</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104335</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2645,8 +2730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905001" y="3266599"/>
-          <a:ext cx="250031" cy="303371"/>
+          <a:off x="2177014" y="5134964"/>
+          <a:ext cx="278423" cy="303371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2700,16 +2785,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>90671</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>117634</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90671</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2724,8 +2809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4083844" y="1538288"/>
-          <a:ext cx="250031" cy="293846"/>
+          <a:off x="4801883" y="5406904"/>
+          <a:ext cx="278423" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2779,16 +2864,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>216218</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30004</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223545</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>216218</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>223545</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>148004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2803,8 +2888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716281" y="1935004"/>
-          <a:ext cx="250031" cy="293846"/>
+          <a:off x="5770026" y="5378658"/>
+          <a:ext cx="278423" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2858,16 +2943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>153132</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91917</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7584</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14984</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2882,8 +2967,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="500063" y="2276476"/>
-          <a:ext cx="382906" cy="291941"/>
+          <a:off x="2086707" y="2771043"/>
+          <a:ext cx="406902" cy="291941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2938,15 +3023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>105728</xdr:rowOff>
+      <xdr:colOff>216694</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>168594</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22384</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>73344</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2961,8 +3046,87 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="535782" y="6011228"/>
-          <a:ext cx="382906" cy="297656"/>
+          <a:off x="769144" y="1734503"/>
+          <a:ext cx="409100" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130419</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>263294</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D17D00-D887-478A-9634-BF291809B642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2063994" y="3204065"/>
+          <a:ext cx="409100" cy="291941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3003,6 +3167,470 @@
               </a:solidFill>
             </a:rPr>
             <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273295</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129945</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67738</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3121BAE5-03C9-466E-A17C-A2B4A3AF9B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4959595" y="1490297"/>
+          <a:ext cx="409100" cy="291941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>75102</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>4886</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140128</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="グループ化 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F613DD0A-DD7D-4BA5-9B46-4F6063AEDA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3475527" y="1937970"/>
+          <a:ext cx="6187709" cy="297658"/>
+          <a:chOff x="3698875" y="1952624"/>
+          <a:chExt cx="6230938" cy="297658"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E913CD-445F-480C-B929-584215A00A99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5472905" y="1952624"/>
+            <a:ext cx="1266032" cy="297657"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>質問投稿ページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34CC034-5293-4771-A54F-F32483560FB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7489033" y="1964532"/>
+            <a:ext cx="992187" cy="273842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>マイページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B68D0ED-E1B0-460D-8893-21E8A9CFB981}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9132096" y="1988345"/>
+            <a:ext cx="797717" cy="261937"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログアウト</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468A7DF5-9D73-4D94-A799-9457DC931230}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3698875" y="1988344"/>
+            <a:ext cx="1301750" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>トップページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73819</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>206694</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB495EEB-D667-4D0B-9117-126C2241C55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="626269" y="2096453"/>
+          <a:ext cx="409100" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>169069</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25719</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2044539-77E9-446D-A9B5-039B38A2FC4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="721519" y="6001703"/>
+          <a:ext cx="409100" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>15</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3338,19 +3966,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.625" style="1"/>
+    <col min="11" max="11" width="8.375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="3.625" style="1"/>
     <col min="14" max="14" width="6" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="3.6640625" style="1"/>
+    <col min="15" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3372,7 +4000,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
@@ -3387,7 +4015,7 @@
       </c>
       <c r="X1" s="31"/>
       <c r="Y1" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
@@ -3395,10 +4023,10 @@
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="31"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="45"/>
+      <c r="AG1" s="46"/>
       <c r="AH1" s="38"/>
       <c r="AI1" s="38"/>
       <c r="AJ1" s="38"/>
@@ -3424,7 +4052,7 @@
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
@@ -3438,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="46">
+      <c r="Y2" s="42">
         <v>44356</v>
       </c>
       <c r="Z2" s="41"/>
@@ -3447,17 +4075,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
@@ -5373,7 +6001,9 @@
       <c r="B49" s="6"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -5414,9 +6044,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="D50" s="10"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -5458,10 +6086,10 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="D51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -5504,7 +6132,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -5547,7 +6175,9 @@
       <c r="B53" s="6"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -5556,11 +6186,11 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
@@ -5588,9 +6218,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="D54" s="10"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -5632,10 +6260,10 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="D55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -5677,7 +6305,9 @@
       <c r="B56" s="6"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -5686,11 +6316,11 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -5718,9 +6348,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="D57" s="10"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -5762,10 +6390,10 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="D58" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -5807,7 +6435,9 @@
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -5848,10 +6478,10 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -5893,9 +6523,7 @@
       <c r="B61" s="6"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -5936,7 +6564,9 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="D62" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -5979,7 +6609,9 @@
       <c r="B63" s="6"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -6355,8 +6987,8 @@
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -6396,379 +7028,351 @@
     </row>
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
-      <c r="AG73" s="12"/>
-      <c r="AH73" s="12"/>
-      <c r="AI73" s="12"/>
-      <c r="AJ73" s="12"/>
-      <c r="AK73" s="12"/>
-      <c r="AL73" s="12"/>
-      <c r="AM73" s="13"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="9"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="9"/>
+      <c r="AM73" s="7"/>
       <c r="AN73" s="7"/>
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
-      <c r="AI74" s="12"/>
-      <c r="AJ74" s="12"/>
-      <c r="AK74" s="12"/>
-      <c r="AL74" s="12"/>
-      <c r="AM74" s="12"/>
-      <c r="AN74" s="13"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="9"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="9"/>
+      <c r="AL74" s="9"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-      <c r="AG75" s="4"/>
-      <c r="AH75" s="4"/>
-      <c r="AI75" s="4"/>
-      <c r="AJ75" s="4"/>
-      <c r="AK75" s="4"/>
-      <c r="AL75" s="4"/>
-      <c r="AM75" s="4"/>
-      <c r="AN75" s="5"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="13"/>
+      <c r="AN75" s="7"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
-      <c r="AI76" s="4"/>
-      <c r="AJ76" s="4"/>
-      <c r="AK76" s="4"/>
-      <c r="AL76" s="4"/>
-      <c r="AM76" s="5"/>
-      <c r="AN76" s="7"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="12"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="12"/>
+      <c r="AN76" s="13"/>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8"/>
-      <c r="AB77" s="8"/>
-      <c r="AC77" s="8"/>
-      <c r="AD77" s="8"/>
-      <c r="AE77" s="8"/>
-      <c r="AF77" s="8"/>
-      <c r="AG77" s="8"/>
-      <c r="AH77" s="8"/>
-      <c r="AI77" s="8"/>
-      <c r="AJ77" s="8"/>
-      <c r="AK77" s="8"/>
-      <c r="AL77" s="8"/>
-      <c r="AM77" s="7"/>
-      <c r="AN77" s="7"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="4"/>
+      <c r="AN77" s="5"/>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M78" s="17"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T78" s="19"/>
-      <c r="U78" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V78" s="19"/>
-      <c r="W78" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="19"/>
-      <c r="AA78" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB78" s="17"/>
-      <c r="AC78" s="19"/>
-      <c r="AD78" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE78" s="17"/>
-      <c r="AF78" s="17"/>
-      <c r="AG78" s="17"/>
-      <c r="AH78" s="17"/>
-      <c r="AI78" s="17"/>
-      <c r="AJ78" s="17"/>
-      <c r="AK78" s="17"/>
-      <c r="AL78" s="17"/>
-      <c r="AM78" s="20"/>
+      <c r="B78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
+      <c r="AM78" s="5"/>
       <c r="AN78" s="7"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15">
-        <v>1</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="M79" s="17"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="17"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB79" s="17"/>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="16"/>
-      <c r="AE79" s="17"/>
-      <c r="AF79" s="17"/>
-      <c r="AG79" s="17"/>
-      <c r="AH79" s="17"/>
-      <c r="AI79" s="17"/>
-      <c r="AJ79" s="17"/>
-      <c r="AK79" s="17"/>
-      <c r="AL79" s="17"/>
-      <c r="AM79" s="20"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="8"/>
+      <c r="AE79" s="8"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="8"/>
+      <c r="AL79" s="8"/>
+      <c r="AM79" s="7"/>
       <c r="AN79" s="7"/>
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15">
-        <v>2</v>
-      </c>
+      <c r="B80" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="15"/>
       <c r="D80" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
-      <c r="S80" s="16"/>
+      <c r="S80" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="T80" s="19"/>
-      <c r="U80" s="16"/>
+      <c r="U80" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
-      <c r="AD80" s="16"/>
+      <c r="AD80" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AE80" s="17"/>
       <c r="AF80" s="17"/>
       <c r="AG80" s="17"/>
@@ -6784,16 +7388,16 @@
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -6804,23 +7408,27 @@
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
-      <c r="S81" s="16"/>
+      <c r="S81" s="16">
+        <v>1</v>
+      </c>
       <c r="T81" s="19"/>
-      <c r="U81" s="16"/>
+      <c r="U81" s="16">
+        <v>30</v>
+      </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -6840,38 +7448,48 @@
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
-      <c r="S82" s="16"/>
+      <c r="S82" s="16">
+        <v>1</v>
+      </c>
       <c r="T82" s="19"/>
-      <c r="U82" s="16"/>
+      <c r="U82" s="16">
+        <v>30</v>
+      </c>
       <c r="V82" s="19"/>
-      <c r="W82" s="16"/>
+      <c r="W82" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
-      <c r="AA82" s="16"/>
+      <c r="AA82" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="16"/>
@@ -6890,38 +7508,48 @@
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
-      <c r="S83" s="16"/>
+      <c r="S83" s="16">
+        <v>1</v>
+      </c>
       <c r="T83" s="19"/>
-      <c r="U83" s="16"/>
+      <c r="U83" s="16">
+        <v>30</v>
+      </c>
       <c r="V83" s="19"/>
-      <c r="W83" s="16"/>
+      <c r="W83" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
-      <c r="AA83" s="16"/>
+      <c r="AA83" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
       <c r="AD83" s="16"/>
@@ -6940,43 +7568,47 @@
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
-      <c r="S84" s="16"/>
+      <c r="S84" s="16">
+        <v>1</v>
+      </c>
       <c r="T84" s="19"/>
-      <c r="U84" s="16"/>
+      <c r="U84" s="16">
+        <v>30</v>
+      </c>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -6996,43 +7628,47 @@
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
-      <c r="S85" s="16"/>
+      <c r="S85" s="16">
+        <v>1</v>
+      </c>
       <c r="T85" s="19"/>
-      <c r="U85" s="16"/>
+      <c r="U85" s="16">
+        <v>30</v>
+      </c>
       <c r="V85" s="19"/>
       <c r="W85" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
@@ -7052,26 +7688,28 @@
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="16"/>
+      <c r="O86" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>
@@ -7079,11 +7717,15 @@
       <c r="T86" s="19"/>
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
-      <c r="W86" s="16"/>
+      <c r="W86" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
-      <c r="AA86" s="16"/>
+      <c r="AA86" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="16"/>
@@ -7102,26 +7744,28 @@
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
-      <c r="O87" s="16"/>
+      <c r="O87" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="19"/>
@@ -7129,11 +7773,15 @@
       <c r="T87" s="19"/>
       <c r="U87" s="16"/>
       <c r="V87" s="19"/>
-      <c r="W87" s="16"/>
+      <c r="W87" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
-      <c r="AA87" s="16"/>
+      <c r="AA87" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="16"/>
@@ -7152,22 +7800,22 @@
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -7202,22 +7850,22 @@
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -7251,19 +7899,29 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="15">
+        <v>10</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="16"/>
+      <c r="O90" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
@@ -7271,11 +7929,15 @@
       <c r="T90" s="19"/>
       <c r="U90" s="16"/>
       <c r="V90" s="19"/>
-      <c r="W90" s="16"/>
+      <c r="W90" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X90" s="17"/>
       <c r="Y90" s="17"/>
       <c r="Z90" s="19"/>
-      <c r="AA90" s="16"/>
+      <c r="AA90" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="AB90" s="17"/>
       <c r="AC90" s="19"/>
       <c r="AD90" s="16"/>
@@ -7293,19 +7955,29 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
+      <c r="C91" s="15">
+        <v>11</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
+      <c r="H91" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
-      <c r="L91" s="16"/>
+      <c r="L91" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
-      <c r="O91" s="16"/>
+      <c r="O91" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="19"/>
@@ -7313,11 +7985,15 @@
       <c r="T91" s="19"/>
       <c r="U91" s="16"/>
       <c r="V91" s="19"/>
-      <c r="W91" s="16"/>
+      <c r="W91" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X91" s="17"/>
       <c r="Y91" s="17"/>
       <c r="Z91" s="19"/>
-      <c r="AA91" s="16"/>
+      <c r="AA91" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="AB91" s="17"/>
       <c r="AC91" s="19"/>
       <c r="AD91" s="16"/>
@@ -7335,16 +8011,24 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
+      <c r="C92" s="15">
+        <v>12</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
+      <c r="H92" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
-      <c r="L92" s="16"/>
+      <c r="L92" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
       <c r="O92" s="16"/>
@@ -7377,16 +8061,24 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
+      <c r="C93" s="15">
+        <v>13</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="16"/>
+      <c r="H93" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="I93" s="18"/>
       <c r="J93" s="17"/>
       <c r="K93" s="19"/>
-      <c r="L93" s="16"/>
+      <c r="L93" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="M93" s="17"/>
       <c r="N93" s="19"/>
       <c r="O93" s="16"/>
@@ -7419,16 +8111,24 @@
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="16"/>
+      <c r="C94" s="15">
+        <v>14</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="15"/>
-      <c r="H94" s="16"/>
+      <c r="H94" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I94" s="18"/>
       <c r="J94" s="17"/>
       <c r="K94" s="19"/>
-      <c r="L94" s="16"/>
+      <c r="L94" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="M94" s="17"/>
       <c r="N94" s="19"/>
       <c r="O94" s="16"/>
@@ -7461,16 +8161,24 @@
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="16"/>
+      <c r="C95" s="15">
+        <v>15</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="15"/>
-      <c r="H95" s="16"/>
+      <c r="H95" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I95" s="18"/>
       <c r="J95" s="17"/>
       <c r="K95" s="19"/>
-      <c r="L95" s="16"/>
+      <c r="L95" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="M95" s="17"/>
       <c r="N95" s="19"/>
       <c r="O95" s="16"/>
@@ -8047,46 +8755,298 @@
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-      <c r="Z109" s="12"/>
-      <c r="AA109" s="12"/>
-      <c r="AB109" s="12"/>
-      <c r="AC109" s="12"/>
-      <c r="AD109" s="12"/>
-      <c r="AE109" s="12"/>
-      <c r="AF109" s="12"/>
-      <c r="AG109" s="12"/>
-      <c r="AH109" s="12"/>
-      <c r="AI109" s="12"/>
-      <c r="AJ109" s="12"/>
-      <c r="AK109" s="12"/>
-      <c r="AL109" s="12"/>
-      <c r="AM109" s="12"/>
-      <c r="AN109" s="13"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="19"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="19"/>
+      <c r="AD109" s="16"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+      <c r="AL109" s="17"/>
+      <c r="AM109" s="20"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="19"/>
+      <c r="W110" s="16"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="19"/>
+      <c r="AA110" s="16"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="16"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
+      <c r="AJ110" s="17"/>
+      <c r="AK110" s="17"/>
+      <c r="AL110" s="17"/>
+      <c r="AM110" s="20"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="16"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="19"/>
+      <c r="AD111" s="16"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+      <c r="AJ111" s="17"/>
+      <c r="AK111" s="17"/>
+      <c r="AL111" s="17"/>
+      <c r="AM111" s="20"/>
+      <c r="AN111" s="7"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="16"/>
+      <c r="V112" s="19"/>
+      <c r="W112" s="16"/>
+      <c r="X112" s="17"/>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="19"/>
+      <c r="AA112" s="16"/>
+      <c r="AB112" s="17"/>
+      <c r="AC112" s="19"/>
+      <c r="AD112" s="16"/>
+      <c r="AE112" s="17"/>
+      <c r="AF112" s="17"/>
+      <c r="AG112" s="17"/>
+      <c r="AH112" s="17"/>
+      <c r="AI112" s="17"/>
+      <c r="AJ112" s="17"/>
+      <c r="AK112" s="17"/>
+      <c r="AL112" s="17"/>
+      <c r="AM112" s="20"/>
+      <c r="AN112" s="7"/>
+    </row>
+    <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="19"/>
+      <c r="W113" s="16"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="19"/>
+      <c r="AA113" s="16"/>
+      <c r="AB113" s="17"/>
+      <c r="AC113" s="19"/>
+      <c r="AD113" s="16"/>
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="17"/>
+      <c r="AG113" s="17"/>
+      <c r="AH113" s="17"/>
+      <c r="AI113" s="17"/>
+      <c r="AJ113" s="17"/>
+      <c r="AK113" s="17"/>
+      <c r="AL113" s="17"/>
+      <c r="AM113" s="20"/>
+      <c r="AN113" s="7"/>
+    </row>
+    <row r="114" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="19"/>
+      <c r="W114" s="16"/>
+      <c r="X114" s="17"/>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="19"/>
+      <c r="AA114" s="16"/>
+      <c r="AB114" s="17"/>
+      <c r="AC114" s="19"/>
+      <c r="AD114" s="16"/>
+      <c r="AE114" s="17"/>
+      <c r="AF114" s="17"/>
+      <c r="AG114" s="17"/>
+      <c r="AH114" s="17"/>
+      <c r="AI114" s="17"/>
+      <c r="AJ114" s="17"/>
+      <c r="AK114" s="17"/>
+      <c r="AL114" s="17"/>
+      <c r="AM114" s="20"/>
+      <c r="AN114" s="7"/>
+    </row>
+    <row r="115" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="12"/>
+      <c r="AB115" s="12"/>
+      <c r="AC115" s="12"/>
+      <c r="AD115" s="12"/>
+      <c r="AE115" s="12"/>
+      <c r="AF115" s="12"/>
+      <c r="AG115" s="12"/>
+      <c r="AH115" s="12"/>
+      <c r="AI115" s="12"/>
+      <c r="AJ115" s="12"/>
+      <c r="AK115" s="12"/>
+      <c r="AL115" s="12"/>
+      <c r="AM115" s="12"/>
+      <c r="AN115" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\backup\D-4\外部設計関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E9528-5916-42CB-A01C-894358B7053D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4862598E-5112-4850-80A0-241D66262108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -600,6 +600,10 @@
   </si>
   <si>
     <t>質問タグが1つも入力されていなかった場合、アラートを表示し、データ送信されずに元の入力画面に戻る。</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3968,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W94" sqref="W94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7713,9 +7717,13 @@
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>
-      <c r="S86" s="16"/>
+      <c r="S86" s="16">
+        <v>1</v>
+      </c>
       <c r="T86" s="19"/>
-      <c r="U86" s="16"/>
+      <c r="U86" s="16">
+        <v>80</v>
+      </c>
       <c r="V86" s="19"/>
       <c r="W86" s="16" t="s">
         <v>63</v>
@@ -7764,7 +7772,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -7925,9 +7933,13 @@
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
-      <c r="S90" s="16"/>
+      <c r="S90" s="16">
+        <v>1</v>
+      </c>
       <c r="T90" s="19"/>
-      <c r="U90" s="16"/>
+      <c r="U90" s="16">
+        <v>80</v>
+      </c>
       <c r="V90" s="19"/>
       <c r="W90" s="16" t="s">
         <v>63</v>
@@ -7981,9 +7993,13 @@
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="19"/>
-      <c r="S91" s="16"/>
+      <c r="S91" s="16">
+        <v>1</v>
+      </c>
       <c r="T91" s="19"/>
-      <c r="U91" s="16"/>
+      <c r="U91" s="16">
+        <v>500</v>
+      </c>
       <c r="V91" s="19"/>
       <c r="W91" s="16" t="s">
         <v>63</v>

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4862598E-5112-4850-80A0-241D66262108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703D8B4-AC54-4FD4-9B6C-6183CABFA15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1035" windowWidth="10680" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -3287,8 +3287,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3475527" y="1937970"/>
-          <a:ext cx="6187709" cy="297658"/>
+          <a:off x="3408852" y="1937970"/>
+          <a:ext cx="6057534" cy="297658"/>
           <a:chOff x="3698875" y="1952624"/>
           <a:chExt cx="6230938" cy="297658"/>
         </a:xfrm>
@@ -3972,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W94" sqref="W94"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
+++ b/外部設計関連/外部設計書_機能名 - 自分の質問投稿を編集するページ .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703D8B4-AC54-4FD4-9B6C-6183CABFA15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E3ED2C-D3BA-44DD-AF4E-261905DAB134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1035" windowWidth="10680" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="0" windowWidth="10680" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -3287,8 +3287,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3408852" y="1937970"/>
-          <a:ext cx="6057534" cy="297658"/>
+          <a:off x="3475527" y="1937970"/>
+          <a:ext cx="6187709" cy="297658"/>
           <a:chOff x="3698875" y="1952624"/>
           <a:chExt cx="6230938" cy="297658"/>
         </a:xfrm>
@@ -3972,7 +3972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
